--- a/baza.xlsx
+++ b/baza.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Google_brat\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FASTAPI\SHNQ CALCULATSIYA\shnq_adreska\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C1D17A0-D17D-4F73-9DAC-8FE6A5C03935}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3B39B85-0DE8-4E81-9ADD-23D573F47B35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -705,8 +705,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1224,7 +1224,9 @@
       <c r="H16" t="s">
         <v>65</v>
       </c>
-      <c r="I16" s="16"/>
+      <c r="I16" s="16">
+        <v>1</v>
+      </c>
       <c r="J16">
         <v>0</v>
       </c>
